--- a/service/TestService/config/xlsx/邀请码.xlsx
+++ b/service/TestService/config/xlsx/邀请码.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6637AB7C-0D42-46BD-949A-CC3C533EC034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEC0AC6-9E50-4BFE-85D2-EFEF0312C89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="邀请码|InviteCode" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/service/TestService/config/xlsx/邀请码.xlsx
+++ b/service/TestService/config/xlsx/邀请码.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEC0AC6-9E50-4BFE-85D2-EFEF0312C89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2DE470-710D-48AB-B754-3B8BFB007AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/service/TestService/config/xlsx/邀请码.xlsx
+++ b/service/TestService/config/xlsx/邀请码.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CrystalNetGithub\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2DE470-710D-48AB-B754-3B8BFB007AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8A80B4-E6EA-467F-BB73-CDC5BEDB792E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9288" yWindow="5124" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="邀请码|InviteCode" sheetId="1" r:id="rId1"/>
@@ -87,11 +87,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"54dafas8"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>邀请码(不超过64个英文字符),且邀请码不重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"54dafas89"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +420,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -495,7 +495,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
